--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57BEF8E-FB4E-4B58-BC19-AB74F7B217F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F8EBF-17A8-403D-9907-82A07F843164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,FaP,SaP,FaD,WaP,RaD,SaD,RaP</t>
-  </si>
-  <si>
-    <t>WaP,RaP,SaN,WaN,RaN,FaN,FaP,SaP</t>
+    <t>FaP,SaP,WaP,SaD,FaD,RaP,RaD,WaD</t>
+  </si>
+  <si>
+    <t>RaN,FaP,SaP,RaP,FaN,WaP,SaN,WaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>WaP,RaP,SaN,WaN,RaN,FaN,FaP,SaP</v>
+        <v>RaN,FaP,SaP,RaP,FaN,WaP,SaN,WaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,FaP,SaP,FaD,WaP,RaD,SaD,RaP</v>
+        <v>FaP,SaP,WaP,SaD,FaD,RaP,RaD,WaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510117C6-4F8F-4914-BD39-9CC446007088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409111CC-30A0-472E-BC92-8B57E39548E2}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34336B21-5B1F-48B6-A00A-09B93A64F4A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E699398-DC0F-4584-9979-092D4B038842}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.27551721102209703</v>
+        <v>0.34481908618716439</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N5">
-        <v>0.28270094198432955</v>
+        <v>0.27551721102209703</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N6">
-        <v>0.29696276080640899</v>
+        <v>0.28270094198432955</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N7">
-        <v>0.34481908618716439</v>
+        <v>0.29696276080640904</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C6A4CE-BCAA-4DD6-9EA0-F85989311DF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5772897F-ABDC-4E41-BDF1-2F537F6BF706}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8F8EBF-17A8-403D-9907-82A07F843164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E6186-3535-41BC-94CC-CEA4B48328F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaP,SaP,WaP,SaD,FaD,RaP,RaD,WaD</t>
-  </si>
-  <si>
-    <t>RaN,FaP,SaP,RaP,FaN,WaP,SaN,WaN</t>
+    <t>WaD,RaP,FaD,SaD,RaD,FaP,SaP,WaP</t>
+  </si>
+  <si>
+    <t>SaN,WaN,WaP,RaP,FaP,SaP,FaN,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaN,FaP,SaP,RaP,FaN,WaP,SaN,WaN</v>
+        <v>SaN,WaN,WaP,RaP,FaP,SaP,FaN,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaP,SaP,WaP,SaD,FaD,RaP,RaD,WaD</v>
+        <v>WaD,RaP,FaD,SaD,RaD,FaP,SaP,WaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409111CC-30A0-472E-BC92-8B57E39548E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58838D0-CB22-41F7-9817-F4604666A3E4}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E699398-DC0F-4584-9979-092D4B038842}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7990672A-6AF1-442B-8190-E2521C48EAC5}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N4">
-        <v>0.34481908618716439</v>
+        <v>0.29696276080640899</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N5">
-        <v>0.27551721102209703</v>
+        <v>0.34481908618716439</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.28270094198432955</v>
+        <v>0.27551721102209698</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N7">
-        <v>0.29696276080640904</v>
+        <v>0.2827009419843296</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5772897F-ABDC-4E41-BDF1-2F537F6BF706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FD3457-CD4F-4E9C-82C3-502320A36EE9}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05E6186-3535-41BC-94CC-CEA4B48328F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D18795C-D425-467F-AB99-2263A9E52181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>WaD,RaP,FaD,SaD,RaD,FaP,SaP,WaP</t>
-  </si>
-  <si>
-    <t>SaN,WaN,WaP,RaP,FaP,SaP,FaN,RaN</t>
+    <t>FaD,WaD,SaD,FaP,SaP,WaP,RaP,RaD</t>
+  </si>
+  <si>
+    <t>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>SaN,WaN,WaP,RaP,FaP,SaP,FaN,RaN</v>
+        <v>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>WaD,RaP,FaD,SaD,RaD,FaP,SaP,WaP</v>
+        <v>FaD,WaD,SaD,FaP,SaP,WaP,RaP,RaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58838D0-CB22-41F7-9817-F4604666A3E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0852E-4720-428E-9AE3-81A9C99CDC21}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7990672A-6AF1-442B-8190-E2521C48EAC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0391078E-1635-485A-8EEA-741056218407}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N4">
-        <v>0.29696276080640899</v>
+        <v>0.27551721102209703</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N6">
-        <v>0.27551721102209698</v>
+        <v>0.29696276080640899</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FD3457-CD4F-4E9C-82C3-502320A36EE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FACF566-D6AF-4A1F-8469-0161AD1EC37C}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_FIN_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_FIN_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D18795C-D425-467F-AB99-2263A9E52181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6256FAFF-45F4-4F4B-A124-8835993DB3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>FaD,WaD,SaD,FaP,SaP,WaP,RaP,RaD</t>
-  </si>
-  <si>
-    <t>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</t>
+    <t>FaP,SaP,SaD,RaP,RaD,WaD,WaP,FaD</t>
+  </si>
+  <si>
+    <t>FaP,SaP,WaP,RaN,SaN,WaN,FaN,RaP</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaP,FaP,SaP,FaN,RaN,SaN,WaN,WaP</v>
+        <v>FaP,SaP,WaP,RaN,SaN,WaN,FaN,RaP</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>FaD,WaD,SaD,FaP,SaP,WaP,RaP,RaD</v>
+        <v>FaP,SaP,SaD,RaP,RaD,WaD,WaP,FaD</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE0852E-4720-428E-9AE3-81A9C99CDC21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52866A88-E142-42A8-B43A-06110C058605}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0391078E-1635-485A-8EEA-741056218407}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2126B11E-C3B8-4BC5-93FC-4A54A106B64C}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1726,7 +1726,7 @@
         <v>28</v>
       </c>
       <c r="N4">
-        <v>0.27551721102209703</v>
+        <v>0.27551721102209698</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.34481908618716439</v>
+        <v>0.28270094198432966</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1796,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="N6">
-        <v>0.29696276080640899</v>
+        <v>0.2969627608064091</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -1828,10 +1828,10 @@
         <v>97</v>
       </c>
       <c r="M7" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="N7">
-        <v>0.2827009419843296</v>
+        <v>0.34481908618716439</v>
       </c>
       <c r="O7" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FACF566-D6AF-4A1F-8469-0161AD1EC37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79470CAC-2FBB-49DD-8299-E274C345938F}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
